--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
+++ b/ValueSet-SILPH-ICD10NatureofInjuryVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
